--- a/My450.xlsx
+++ b/My450.xlsx
@@ -27,45 +27,384 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
   <si>
     <t>Sr. No.</t>
   </si>
   <si>
+    <t>Topic</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>Code Link</t>
   </si>
   <si>
-    <t>Topice Notes Ref</t>
+    <t>Topice Notes</t>
   </si>
   <si>
     <t>Logic Notes Ref</t>
   </si>
   <si>
-    <t>codes\code.txt</t>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>1. Reverse Array/String</t>
+  </si>
+  <si>
+    <t>codes\Array\1. Reverse Array Or String.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\1. Reverse Array Or String.txt</t>
+  </si>
+  <si>
+    <t>Day 1 - Page 1</t>
+  </si>
+  <si>
+    <t>2. Min and Max Element from Array</t>
+  </si>
+  <si>
+    <t>codes\Array\2. find min max element from array.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\2. find Min Max ele from Array.txt</t>
+  </si>
+  <si>
+    <t>Day 2 - Page 1</t>
+  </si>
+  <si>
+    <t>Algo. Quick Sort</t>
+  </si>
+  <si>
+    <t>codes\Array\Algorithm\Algo. Quick Sort.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\Algorithm\Algo. Quick Sort.txt</t>
+  </si>
+  <si>
+    <t>Algo. Quick Select</t>
+  </si>
+  <si>
+    <t>codes\Array\Algorithm\Algo. Quick Select.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\Algorithm\Algo. Quick Select.txt</t>
+  </si>
+  <si>
+    <t>3. Sort 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t>codes\Array\3. sort  0's 1's 2's.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\3. Sort 0's 1's &amp; 2's.txt</t>
+  </si>
+  <si>
+    <t>Page - 4</t>
+  </si>
+  <si>
+    <t>4. Move all the negative elements to one side of the array</t>
+  </si>
+  <si>
+    <t>codes\Array\4. Move all the negative elements to one side of the array.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\4. Move all the negative elements to one side of the array.txt</t>
+  </si>
+  <si>
+    <t>5. Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>codes\Array\5. Union and intersection of two arrays.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\5. Union and Intersection of two array.txt</t>
+  </si>
+  <si>
+    <t>6. Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>codes\Array\6. Cyclically rotate array by 1.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\6. Cyclicaly rotate array by 1.txt</t>
+  </si>
+  <si>
+    <t>7. Find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>codes\Array\7. continues subarray max sum.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\7. Continues subarray max sum.txt</t>
+  </si>
+  <si>
+    <t>8. Minimize the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>codes\Array\8. Minimize the Heights.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\8. Minimize the Heights.txt</t>
+  </si>
+  <si>
+    <t>9. Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>codes\Array\9. Minimum no. of Jumps to reach end of an array.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\9. Minimum no. of Jumps to reach end of an array.txt</t>
+  </si>
+  <si>
+    <t>10. Find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>codes\Array\10. Find duplicate in an array of N+1 Integers.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\10. Find duplicate in an array of N+1 Integers.txt</t>
+  </si>
+  <si>
+    <t>11.Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>codes\Array\11. Merge 2 sorted arrays without using Extra space..txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\11. Merge 2 sorted arrays without using Extra space..txt</t>
+  </si>
+  <si>
+    <t>12. Kadane’s Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>codes\Array\Algorithm\12. Kadane's Algorithm.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\Algorithm\12. Kadane's Algorithm.txt</t>
+  </si>
+  <si>
+    <t>13. Merge Intervals</t>
+  </si>
+  <si>
+    <t>codes\Array\13. Merge Intervals.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\13. Merge Intervals.txt</t>
+  </si>
+  <si>
+    <t>14. Next Permutation</t>
+  </si>
+  <si>
+    <t>codes\Array\14. Next Permutation.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\14. Next Permutation.txt</t>
+  </si>
+  <si>
+    <t>15. Count Inversion</t>
+  </si>
+  <si>
+    <t>codes\Array\15. Count Inversion.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\15. Count Inversion.txt</t>
+  </si>
+  <si>
+    <t>16. Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>codes\Array\16. Best time to buy and Sell stock.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\16. Best time to buy and Sell stock.txt</t>
+  </si>
+  <si>
+    <t>17. Find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>codes\Array\17. Find all pairs on integer array whose sum is equal to given number.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\17. Find all pairs on integer array whose sum is equal to given number.txt</t>
+  </si>
+  <si>
+    <t>18. Find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>codes\Array\18. Find common elements In 3 sorted arrays.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\18. Find common elements In 3 sorted arrays.txt</t>
+  </si>
+  <si>
+    <t>19. Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>codes\Array\19. Rearrange the array in alternating positive and negative items with O(1) extra space.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\19. Rearrange the array in alternating positive and negative items with O(1) extra space.txt</t>
+  </si>
+  <si>
+    <t>20. Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t>codes\Array\20. Subarray with 0 sum.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\20. Subarray with 0 sum.txt</t>
+  </si>
+  <si>
+    <t>Find factorial of a large number</t>
+  </si>
+  <si>
+    <t>codes\Array\21. Factorials of large numbers.txt</t>
+  </si>
+  <si>
+    <t>Topics\Array\21. Factorials of large numbers.txt</t>
+  </si>
+  <si>
+    <t>Find maximum product subarray</t>
+  </si>
+  <si>
+    <t>Find longest consecutive subsequence</t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, fin all elements that appear more than ” n/k ” times.</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice</t>
+  </si>
+  <si>
+    <t>Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t>Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t>Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t>Search an element in a Matrix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1’s</t>
+  </si>
+  <si>
+    <t>Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Maximum size rectangle</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t>Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t>Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t>Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t>Count and Say problem</t>
+  </si>
+  <si>
+    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t>Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t>Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t>Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,11 +416,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -434,6 +771,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -602,16 +948,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,135 +963,154 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,796 +1430,1453 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.72727272727273" customWidth="1"/>
-    <col min="3" max="3" width="39.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="14.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="16.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="15.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="11.3636363636364"/>
+    <col min="3" max="3" width="12.1818181818182" style="1"/>
+    <col min="4" max="4" width="87.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="97.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="97.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="15.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5">
+    <row r="2" spans="1:7">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9">
+        <v>45636</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45637</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45638</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5">
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45639</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5">
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45640</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45641</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5">
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45642</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5">
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9">
+        <v>45643</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5">
+      <c r="B10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45644</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5">
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45645</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5">
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45646</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5">
+      <c r="B13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45647</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5">
+      <c r="B14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45648</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="B15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9">
+        <v>45649</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="B16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9">
+        <v>45650</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5">
+      <c r="B17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9">
+        <v>45651</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5">
+      <c r="B18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9">
+        <v>45652</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="B19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9">
+        <v>45653</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5">
+      <c r="B20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9">
+        <v>45654</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5">
+      <c r="B21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="9">
+        <v>45655</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5">
+      <c r="B22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9">
+        <v>45656</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5">
+      <c r="B23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="9">
+        <v>45657</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5">
+      <c r="B24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9">
+        <v>45658</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5">
+      <c r="B25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9">
+        <v>45659</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5">
+      <c r="B26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="9">
+        <v>45660</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5">
+      <c r="B27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9">
+        <v>45661</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5">
+      <c r="B28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="9">
+        <v>45662</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5">
+      <c r="B29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="9">
+        <v>45663</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5">
+      <c r="B30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9">
+        <v>45664</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="5">
+      <c r="B31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9">
+        <v>45665</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5">
+      <c r="B32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="9">
+        <v>45666</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5">
+      <c r="B33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9">
+        <v>45667</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5">
+      <c r="B34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="9">
+        <v>45668</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="5">
+      <c r="B35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9">
+        <v>45669</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5">
+      <c r="B36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5">
+      <c r="B37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="9">
+        <v>45671</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5">
+      <c r="B38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9">
+        <v>45672</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5">
+      <c r="B39" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="9">
+        <v>45673</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="5">
+      <c r="B40" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="9">
+        <v>45674</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="5">
+      <c r="B41" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="9">
+        <v>45675</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5">
+      <c r="B42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="9">
+        <v>45676</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="5">
+      <c r="B43" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="9">
+        <v>45677</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="5">
+      <c r="B44" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="9">
+        <v>45678</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="5">
+      <c r="B45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="9">
+        <v>45679</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="5">
+      <c r="B46" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="9">
+        <v>45680</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="5">
+      <c r="B47" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="9">
+        <v>45681</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="5">
+      <c r="B48" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="9">
+        <v>45682</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="5">
+      <c r="B49" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="9">
+        <v>45683</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5">
+      <c r="B50" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="9">
+        <v>45684</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5">
+      <c r="B51" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="9">
+        <v>45685</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="5">
+      <c r="B52" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="9">
+        <v>45686</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="5">
+      <c r="B53" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="9">
+        <v>45687</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="5">
+      <c r="B54" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="9">
+        <v>45688</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="5">
+      <c r="B55" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="9">
+        <v>45689</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="5">
+      <c r="B56" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="9">
+        <v>45690</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="5">
+      <c r="B57" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="9">
+        <v>45691</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="5">
+      <c r="B58" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="9">
+        <v>45692</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="5">
+      <c r="B59" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="9">
+        <v>45693</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="5">
+      <c r="B60" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="9">
+        <v>45694</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="5">
+      <c r="B61" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="9">
+        <v>45695</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="5">
+      <c r="B62" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="9">
+        <v>45696</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="5">
+      <c r="B63" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="9">
+        <v>45697</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="5">
+      <c r="B64" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="9">
+        <v>45698</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="5">
+      <c r="B65" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="9">
+        <v>45699</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="5">
+      <c r="B66" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="9">
+        <v>45700</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="5">
+      <c r="B67" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="9">
+        <v>45701</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="5">
+      <c r="B68" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="9">
+        <v>45702</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="5">
+      <c r="B69" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="9">
+        <v>45703</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="5">
+      <c r="B70" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="9">
+        <v>45704</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="5">
+      <c r="B71" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="9">
+        <v>45705</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="5">
+      <c r="B72" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="9">
+        <v>45706</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="5">
+      <c r="B73" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="9">
+        <v>45707</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="5">
+      <c r="B74" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="9">
+        <v>45708</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="5">
+      <c r="B75" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="9">
+        <v>45709</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
+      <c r="B76" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="9">
+        <v>45710</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="codes\code.txt"/>
+    <hyperlink ref="F2" r:id="rId1" display="Topics\Array\1. Reverse Array Or String.txt"/>
+    <hyperlink ref="E2" r:id="rId2" display="codes\Array\1. Reverse Array Or String.txt"/>
+    <hyperlink ref="E3" r:id="rId3" display="codes\Array\2. find min max element from array.txt"/>
+    <hyperlink ref="F3" r:id="rId4" display="Topics\Array\2. find Min Max ele from Array.txt"/>
+    <hyperlink ref="E4" r:id="rId5" display="codes\Array\Algorithm\Algo. Quick Sort.txt"/>
+    <hyperlink ref="F4" r:id="rId6" display="Topics\Array\Algorithm\Algo. Quick Sort.txt"/>
+    <hyperlink ref="E5" r:id="rId7" display="codes\Array\Algorithm\Algo. Quick Select.txt"/>
+    <hyperlink ref="F5" r:id="rId8" display="Topics\Array\Algorithm\Algo. Quick Select.txt"/>
+    <hyperlink ref="E6" r:id="rId9" display="codes\Array\3. sort  0's 1's 2's.txt"/>
+    <hyperlink ref="F6" r:id="rId10" display="Topics\Array\3. Sort 0's 1's &amp; 2's.txt"/>
+    <hyperlink ref="E8" r:id="rId11" display="codes\Array\5. Union and intersection of two arrays.txt"/>
+    <hyperlink ref="F8" r:id="rId12" display="Topics\Array\5. Union and Intersection of two array.txt"/>
+    <hyperlink ref="E9" r:id="rId13" display="codes\Array\6. Cyclically rotate array by 1.txt"/>
+    <hyperlink ref="F9" r:id="rId14" display="Topics\Array\6. Cyclicaly rotate array by 1.txt"/>
+    <hyperlink ref="E7" r:id="rId15" display="codes\Array\4. Move all the negative elements to one side of the array.txt"/>
+    <hyperlink ref="E10" r:id="rId16" display="codes\Array\7. continues subarray max sum.txt"/>
+    <hyperlink ref="E11" r:id="rId17" display="codes\Array\8. Minimize the Heights.txt"/>
+    <hyperlink ref="E12" r:id="rId18" display="codes\Array\9. Minimum no. of Jumps to reach end of an array.txt"/>
+    <hyperlink ref="E13" r:id="rId19" display="codes\Array\10. Find duplicate in an array of N+1 Integers.txt"/>
+    <hyperlink ref="E14" r:id="rId20" display="codes\Array\11. Merge 2 sorted arrays without using Extra space..txt"/>
+    <hyperlink ref="E16" r:id="rId21" display="codes\Array\13. Merge Intervals.txt"/>
+    <hyperlink ref="E17" r:id="rId22" display="codes\Array\14. Next Permutation.txt"/>
+    <hyperlink ref="E18" r:id="rId23" display="codes\Array\15. Count Inversion.txt"/>
+    <hyperlink ref="E19" r:id="rId24" display="codes\Array\16. Best time to buy and Sell stock.txt"/>
+    <hyperlink ref="E20" r:id="rId25" display="codes\Array\17. Find all pairs on integer array whose sum is equal to given number.txt"/>
+    <hyperlink ref="E21" r:id="rId26" display="codes\Array\18. Find common elements In 3 sorted arrays.txt"/>
+    <hyperlink ref="E22" r:id="rId27" display="codes\Array\19. Rearrange the array in alternating positive and negative items with O(1) extra space.txt"/>
+    <hyperlink ref="E23" r:id="rId28" display="codes\Array\20. Subarray with 0 sum.txt"/>
+    <hyperlink ref="F10" r:id="rId29" display="Topics\Array\7. Continues subarray max sum.txt"/>
+    <hyperlink ref="F11" r:id="rId30" display="Topics\Array\8. Minimize the Heights.txt"/>
+    <hyperlink ref="F12" r:id="rId31" display="Topics\Array\9. Minimum no. of Jumps to reach end of an array.txt"/>
+    <hyperlink ref="F13" r:id="rId32" display="Topics\Array\10. Find duplicate in an array of N+1 Integers.txt"/>
+    <hyperlink ref="F14" r:id="rId33" display="Topics\Array\11. Merge 2 sorted arrays without using Extra space..txt"/>
+    <hyperlink ref="F16" r:id="rId34" display="Topics\Array\13. Merge Intervals.txt"/>
+    <hyperlink ref="F17" r:id="rId35" display="Topics\Array\14. Next Permutation.txt"/>
+    <hyperlink ref="F18" r:id="rId36" display="Topics\Array\15. Count Inversion.txt"/>
+    <hyperlink ref="F19" r:id="rId37" display="Topics\Array\16. Best time to buy and Sell stock.txt"/>
+    <hyperlink ref="F20" r:id="rId38" display="Topics\Array\17. Find all pairs on integer array whose sum is equal to given number.txt"/>
+    <hyperlink ref="F21" r:id="rId39" display="Topics\Array\18. Find common elements In 3 sorted arrays.txt"/>
+    <hyperlink ref="F22" r:id="rId40" display="Topics\Array\19. Rearrange the array in alternating positive and negative items with O(1) extra space.txt"/>
+    <hyperlink ref="F23" r:id="rId41" display="Topics\Array\20. Subarray with 0 sum.txt"/>
+    <hyperlink ref="F7" r:id="rId42" display="Topics\Array\4. Move all the negative elements to one side of the array.txt"/>
+    <hyperlink ref="E15" r:id="rId43" display="codes\Array\Algorithm\12. Kadane's Algorithm.txt"/>
+    <hyperlink ref="F15" r:id="rId44" display="Topics\Array\Algorithm\12. Kadane's Algorithm.txt"/>
+    <hyperlink ref="E24" r:id="rId45" display="codes\Array\21. Factorials of large numbers.txt"/>
+    <hyperlink ref="F24" r:id="rId46" display="Topics\Array\21. Factorials of large numbers.txt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
